--- a/practice.xlsx
+++ b/practice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_work\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAB0501-1734-45BE-B099-4F0F440C9557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C466A-AE28-4FE9-962C-DD7144BAEBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Вид практики</t>
   </si>
@@ -61,108 +61,6 @@
   </si>
   <si>
     <t>ФИО руководителя практики</t>
-  </si>
-  <si>
-    <t>Тип обучения</t>
-  </si>
-  <si>
-    <t>Группа организаций.
-[Имя организации].
-ФИО студентов.
-Группа, форма обучения</t>
-  </si>
-  <si>
-    <t>1.ОАО «Российские железные дороги»</t>
-  </si>
-  <si>
-    <t>1.1. Свердловская детская железная дорога – структурное подразделение Свердловской железной дороги</t>
-  </si>
-  <si>
-    <t>1. Подольских Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t>МР-319, к</t>
-  </si>
-  <si>
-    <t>2.	Сторонние профильные организации</t>
-  </si>
-  <si>
-    <t>2.1 ООО «ДельтаСвар», г. Екатеринбург</t>
-  </si>
-  <si>
-    <t>2. Михайдаров Данил Эльнарович</t>
-  </si>
-  <si>
-    <t>МР-319, б</t>
-  </si>
-  <si>
-    <t>3. Могиленских Артем Олегович</t>
-  </si>
-  <si>
-    <t>4. Орехина Ксения Олеговна</t>
-  </si>
-  <si>
-    <t>5. Ярунин Никита Валерьевич</t>
-  </si>
-  <si>
-    <t>2.2 ООО «Завод Инновационных Технологий», г. Екатеринбург</t>
-  </si>
-  <si>
-    <t>6. Клименко Олег Эдуардович</t>
-  </si>
-  <si>
-    <t>7. Медведев Матвей Евгеньевич</t>
-  </si>
-  <si>
-    <t>8. Пичкалев Егор Николаевич</t>
-  </si>
-  <si>
-    <t>9. Яппаров Михаил Ильдарович</t>
-  </si>
-  <si>
-    <t>2.3 ООО «ИК «Уралспецтеплоремонт», г. Екатеринбург</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. Семенов Павел Евгеньевич  </t>
-  </si>
-  <si>
-    <t>11. Толкачева Полина Анатольевна</t>
-  </si>
-  <si>
-    <t>2.4 АО «Группа «СВЭЛ», г. Екатеринбург</t>
-  </si>
-  <si>
-    <t>12. Гимгин Никита Сергеевич</t>
-  </si>
-  <si>
-    <t>13. Ярдяков Владислав Олегович</t>
-  </si>
-  <si>
-    <t>3. ФГБОУ ВО УрГУПС, кафедра «Мехатроника»:</t>
-  </si>
-  <si>
-    <t>19. Бакулев Виталий Андреевич</t>
-  </si>
-  <si>
-    <t>20. Воронов Артём Вячеславович</t>
-  </si>
-  <si>
-    <t>21. Гладков Олег Владимирович</t>
-  </si>
-  <si>
-    <t>22. Горячих Никита Сергеевич</t>
-  </si>
-  <si>
-    <t>23. Кутузов Павел Сергеевич</t>
-  </si>
-  <si>
-    <t>24. Лисенков Алексей Леонидович</t>
-  </si>
-  <si>
-    <t>25. Мусатов Антон Алексеевич</t>
-  </si>
-  <si>
-    <t>26. Тунаев Федор Антонович</t>
   </si>
   <si>
     <t>МР-319</t>
@@ -220,6 +118,113 @@
   </si>
   <si>
     <t>практика по получению профессиональных умений и опыта профессиональной деятельности (в том числе технологическая практика)</t>
+  </si>
+  <si>
+    <t>б</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>Форма обучения</t>
+  </si>
+  <si>
+    <t>ОАО «Российские железные дороги»</t>
+  </si>
+  <si>
+    <t>Свердловская детская железная дорога – структурное подразделение Свердловской железной дороги</t>
+  </si>
+  <si>
+    <t>Подольских Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Сторонние профильные организации</t>
+  </si>
+  <si>
+    <t>ООО «ДельтаСвар», г. Екатеринбург</t>
+  </si>
+  <si>
+    <t>Михайдаров Данил Эльнарович</t>
+  </si>
+  <si>
+    <t>Могиленских Артем Олегович</t>
+  </si>
+  <si>
+    <t>Орехина Ксения Олеговна</t>
+  </si>
+  <si>
+    <t>Ярунин Никита Валерьевич</t>
+  </si>
+  <si>
+    <t>ООО «Завод Инновационных Технологий», г. Екатеринбург</t>
+  </si>
+  <si>
+    <t>Клименко Олег Эдуардович</t>
+  </si>
+  <si>
+    <t>Медведев Матвей Евгеньевич</t>
+  </si>
+  <si>
+    <t>Пичкалев Егор Николаевич</t>
+  </si>
+  <si>
+    <t>Яппаров Михаил Ильдарович</t>
+  </si>
+  <si>
+    <t>ООО «ИК «Уралспецтеплоремонт», г. Екатеринбург</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семенов Павел Евгеньевич  </t>
+  </si>
+  <si>
+    <t>Толкачева Полина Анатольевна</t>
+  </si>
+  <si>
+    <t>АО «Группа «СВЭЛ», г. Екатеринбург</t>
+  </si>
+  <si>
+    <t>Гимгин Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>Ярдяков Владислав Олегович</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО УрГУПС, кафедра «Мехатроника»:</t>
+  </si>
+  <si>
+    <t>Бакулев Виталий Андреевич</t>
+  </si>
+  <si>
+    <t>Воронов Артём Вячеславович</t>
+  </si>
+  <si>
+    <t>Гладков Олег Владимирович</t>
+  </si>
+  <si>
+    <t>Горячих Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>Кутузов Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Лисенков Алексей Леонидович</t>
+  </si>
+  <si>
+    <t>Мусатов Антон Алексеевич</t>
+  </si>
+  <si>
+    <t>Тунаев Федор Антонович</t>
+  </si>
+  <si>
+    <t>Группа организаций.
+Имя организации.
+ФИО студентов, форма обучения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра </t>
+  </si>
+  <si>
+    <t>"Мехатроника"</t>
   </si>
 </sst>
 </file>
@@ -270,38 +275,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -584,348 +588,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>17</v>
+      <c r="B15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="10"/>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="10"/>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="10"/>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="10"/>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="10"/>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="10"/>
+      <c r="B30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="35" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>36</v>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
+      <c r="B36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="8" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>17</v>
+      <c r="B41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/practice.xlsx
+++ b/practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_work\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C466A-AE28-4FE9-962C-DD7144BAEBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B27C9FE-AF3D-4400-B07E-9AD3515040CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Вид практики</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>"Мехатроника"</t>
+  </si>
+  <si>
+    <t>фыв</t>
+  </si>
+  <si>
+    <t>ыфв</t>
   </si>
 </sst>
 </file>
@@ -586,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -940,6 +946,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B18:D18"/>
